--- a/500all/speech_level/speeches_CHRG-114hhrg20638.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20638.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412469</t>
   </si>
   <si>
-    <t>Lou Barletta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barletta. The committee will come to order.    Since I became chairman of the subcommittee, the committee has worked with GSA on reducing the cost of leased space by negotiating better deals and reducing the real estate footprint.    We held a hearing and a series of roundtables with GSA, tenant agencies, and real estate experts on the large number of GSA leases expiring in the next 5 years and how we can take advantage of the current market to reduce costs to the taxpayer. We could save $500 million annually by just negotiating better lease deals.    As a result of these efforts, we introduced and the House passed H.R. 4487, the Public Buildings Reform and Savings Act, which includes a leasing pilot program which will give GSA the tools that it needs to more effectively lock in good lease deals.    But while we have been working to improve how GSA manages its leases, there are more than 50 other agencies with their own authority to lease office and warehouse space. And half of those agencies do not even have to comply with OMB's directives to reduce space or report their leases to the governmentwide Federal real property database.    For many of these agencies, there is little oversight of how they manage their leases. That is why the committee requested that the GAO do a review of these independent leasing authorities, including:    One, how they are used and managed;    Two, whether the agencies are getting good deals for the taxpayer;    Three, whether agencies are reducing their costs and space footprint; and    Four, whether agencies are acting within their legal authority.    While the GAO found that some of these agencies were able to get comparable leasing rates or even better than GSA, in part due to their use of real estate brokers, very often they leased more space than they needed.    In addition, there are serious questions about whether some of these agencies are exceeding their leasing authority, potentially running afoul of key laws such as the Anti-Deficiency Act.    The committee's investigation of the Securities and Exchange Commission's use of its leasing authority in 2011 revealed the pitfalls agencies can fall into. The SEC exceeded its leasing authority and wound up committing the taxpayers to a $500 million lease that it did not need and, ultimately, had to be bailed out with help from GSA. The SEC, the Commodity Futures Trading Commission, and the VA are just a few agencies that have run afoul of laws limiting their leasing authorities.    Intentional or not, agencies that do not have real property as their primary mission face serious legal risks. And it is critical, starting with this hearing, that this message is made clear to them.    Before an agency signs a lease, there are three basic questions it should ask:    One, does the agency have leasing authority?    Two, does the agency have either no-year funding or explicit authority to enter into multiyear leases?    And, three, does the agency have an exemption from the Anti-Deficiency Act and the recording statute?    While there are a few exceptions, if the answer to any of these questions is no, the agency may not have the legal authority to sign a lease or may have to obligate the full amount of the lease upfront.    This analysis is separate from the analysis for whether or not a lease is a capital lease for scoring purposes.    We hope to hear more from GAO about its findings and learn how agencies with their own leasing authorities are managing and using their leasing authorities.    We also asked the GAO to review the use of purchase options in GSA leases. If used strategically, purchase options could save significant taxpayer dollars.    The budgetary scoring rules enacted in the 1990s effectively ended the practice of negotiating discounted purchase options in lease agreements by labeling them as capital leases. As capital leases, the full cost of the lease must be obligated upfront, creating a disincentive to use them.    The result has been the taxpayer paying for a building several times over through lease payments without ever being able to gain an equity interest. For example, we will have paid nearly $2 billion for headquarters space for DOT when the current lease expires without accruing any equity.    By identifying and reviewing a number of purchase options in GSA leases, GAO found that in the options exercised in recent years there was an $80 million benefit to the taxpayer. The Public Buildings Reform and Savings Act includes a provision that would provide GSA with the ability to again include these options, where appropriate, in its leases.    I look forward to hearing more from GAO and from our other witnesses today on these issues.    Thank you.    I now call on the ranking member of the subcommittee, Mr. Carson, for his opening statement.</t>
   </si>
   <si>
     <t>412258</t>
   </si>
   <si>
-    <t>André Carson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman Barletta and Ranking Member DeFazio.    Welcome to today's hearing about the use of independent leasing authority, on behalf of subcommittee Chairman Barletta and I, who have requested two reports from GAO on the use of independent leasing authority by Federal agencies and the use of purchase options in leasing.    This hearing highlights some of the findings from both of these reports. I am especially interested in the assessment of how GSA manages the civilian real estate inventory and its ability to advise other parts of the Federal Government on leasing commercial office space and warehouse space.    In 1949, President Harry Truman signed a law that created the modern day GSA and consolidated several Federal agencies into one agency tasked with providing workplaces for Federal employees and administering supplies. Since GSA was created, it has grown into a real estate giant that leases over 8,000 property assets, totaling 191 million rentable square feet with annual costs of $5.6 billion.    However, in January 2003, GAO designated Federal real property management as a high-risk area due, in part, to the Federal Government's overreliance on costly leasing. The Federal Government's real estate portfolio was in need of oversight and corrective action.    To that end, the Office of Management and Budget issued memoranda in 2012, 2013, and 2015 requiring Federal agencies to freeze and reduce their space footprint. This administration's sustained efforts, coupled with the efforts of this subcommittee, have resulted in millions of square footage of underutilized and unneeded property being shed from the Federal real estate inventory. These efforts have saved money and have allowed precious resources to be better used to achieve agency missions.    While there has been progress in really right-sizing the Federal real estate inventory, last February the leadership of this committee wrote to GAO asking them to study how agencies with their own leasing authority independent of GSA are exercising that authority. As detailed earlier by the chairman, many of these agencies were not subject to the Freeze the Footprint or even Reduce the Footprint directives from OMB.    Though this group of agencies tended to get lease rates that were similar to GSA, many of them often acquired more space than GSA would typically allow.    Additionally, GAO has indicated that some of the agencies that have independent leasing authority do not necessarily have the legal authority to sign a long-term operating lease. Many of the agencies that GAO have examined are doing a good job, but there is still room for improvement and the opportunity to find additional savings in future lease agreements.    Today's testimony and dialogue should serve as guideposts to how agencies exercise their independent leasing authority going forward and how more effective use of purchase options can lower the cost of housing Federal agencies further.    I look forward to moving on with this discussion.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>DeFazio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeFazio. Thank you, Mr. Chairman, and thank you for putting scrutiny on this important issue, the costs and potential efficiencies that could be gained with enhanced leasing.    The review of the independent leasing authority certainly has merit, and I do not mean just to gloss over that and I look forward to hearing more about that, but the other issue which has really disturbed me for so many years is that some idiot at OMB in 1990 promulgated a rule which we have been bound by which is restricting the Government's ability.    We hear a lot about running Government like a business. Well, what business is going to go out, enter into a costly lease, and deny itself the opportunity to purchase at the end of that lease at a discounted price, therefore being perpetually forever locked into expensive leasing?    Well, brainiac down at OMB, you know, wrote this into a rule, which somehow has never gotten changed at OMB. I am not certain how we change OMB. I am working with Chairman Chaffetz on OMB reform because I keep running into them doing all sorts of things that do not make sense for the U.S. Government or the taxpayers of the United States of America.    But in this case I am pleased to see that our committee has a solution in H.R. 4487. I mean, you know, for the first time ever in I think it was 2008, the Federal Government began occupying more leased than owned space, and in almost every case that is the more expensive way to go, and it also deprives the Federal Building Fund of direct payments that would help for future acquisitions of space and for maintenance and repair of Federal assets.    So the bill, H.R. 4487, does not really address the idiots at OMB. It does not end-run around their rule, but that is at least an improvement. So I fully support H.R. 4487, and I am looking forward to hearing more.    And I would love anybody on the panel to justify what we are doing now by denying ourselves the authority to purchase at a discounted rate, and if anybody wants to volunteer that, I would be happy to discuss it with them.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t xml:space="preserve">    Mr. Wise. Chairman Barletta, Ranking Member Carson, and members of the subcommittee, I am pleased to be here today to discuss our work on Federal use of independent leasing authority for real property.    While GSA leases real property on behalf of many Federal tenants, Congress can provide independent leasing authority to Federal entities either through their enabling legislation or through an appropriations act. GSA tracks and reports on its tenants' real property holdings. However, less is known about the holdings of Federal entities that independently lease real property.    In 2004, the President issues an Executive order establishing the Federal Real Property Council, FRPC, composed of CFO Act Federal entities. OMB chairs the FRPC.    Goals of the FRPC include developing guidance, facilitating agency asset management plans, and serving as a clearinghouse for leading practices. The order also directed establishment of a governmentwide real property database, now called the Federal Real Property Profile, FRPP.    Today I would like to make four main points. One, in surveying 103 Federal entities, we found that of the 52 reporting leasing authority 25 are not required to report to FRPP, and there is a lack of coordination and information sharing with the FRPC.    Two, most of the 37 selected independent leases we reviewed were comparable to or lower than matched GSA rates.    Three, most selected entities' leasing policies generally align with leasing practices but lack documentation.    And, four, most selected entities exceeded GSA's recommended target for space allocation.    While not required, neither GSA nor OMB maintains a comprehensive list of Federal Government entities with independent leasing authority. FRPP offers a possible way to determine this, but the information is incomplete, as only the agencies in the FRPC are required to annually submit their real property information to FRPP.    Based on our survey, the 25 entities that are not members of FRPC reported in fiscal year 2015 that they leased space covering approximately 8.3 rentable square feet and costing about $293 million in annual rent.    FRPC members coordinate efforts and share leading practices in areas such as space allocation that OMB staff have said are critical to reform efforts. However, the 25 non-member entities are excluded from FRPC efforts.    We also found that FRPC members were more likely to have leasing policies that aligned with the leading practices than non-members. Increasing FRPC participation would likely allow all Federal entities to benefit from the collaboration and sharing of leading practices.    Our related report that we issued today recommended that OMB establish efficient methods for including data from non-FRPC member entities to the FRPP and increase collaboration between FRPC member and non-member entities. OMB agreed with both recommendations.    We analyzed 37 selected independent leases across seven Federal entities. Of these 14 had rates that were less costly than matched GSA leases and 11 had comparable rates. The remaining 12 leases had rates that cost more than matched GSA leases. We identified several possible factors why some of the independent leases we analyzed were less expensive than matched GSA leases as follows.    GSA uses standardized lease documents that include clauses that can be more rigorous than the leases provided by private sector landlords.    Renovation or reconfiguration costs were more common in GSA leases than the independent leases in our sample.    The independent leases we analyzed had periods of free rent built into the leases more frequently than the matched GSA lease.    We developed a list of leading practices that Federal entities should incorporate into their real property leasing functions. These include: one, assessing need; two, planning ahead; three, ensuring best value; and four, analyzing and documenting lease budget effect.    We reviewed the extent to which eight selected Federal entities had policies that aligned with leading Government leasing practices. Although most of the selected entities had established policies consistent with leading Government practices, we found numerous instances where the lease files lacked evidence of support that the leading practices were actually used.    Specifically, we found that a high percentage of the entities' lease files lacked evidence for analyzing and documenting the budget effects of the lease. This is important because Federal entities must comply with the recording statute requires Federal agencies to record the full amount of their contractual liabilities, including leases, against funds available when the contract is executed.    Violations of the recording statute can also result in Anti-Deficiency Act violations if lease obligations exceed available budget authority at the time the lease is executed.    All of the eight entities we reviewed leased more office space per employee than GSA's recommended target of 150 square feet per employee. Twenty-eight of the thirty selected office leases we analyzed exceeded the GSA recommended target on average by a factor of two. Many of these leases had vacant office spaces, which can inflate the per person space allocation.    Greater involvement in FRPC could help these agencies learn and implement leading practices in space utilization.    This completes my prepared statement. I would be pleased to respond to any questions that you may have.    Mr. Barletta. Thank you, Mr. Wise. Thank you for your testimony.    Mr. Wisner, you may proceed.</t>
   </si>
   <si>
-    <t>Wisner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wisner. Good morning, Chairman Barletta, Ranking Member Carson, and members of the subcommittee. I am Chris Wisner, the Assistant Commissioner for Leasing at the General Services Administration's Public Buildings Service. I appreciate being invited here today to discuss GSA's efforts to provide cost effective leased space for our partner Federal agencies.    GSA's mission is to provide the best value in real estate to Government and to the American taxpayer. We currently have an inventory of 376 million square feet of space. Approximately half of that is leased, accounting for more than 8,300 leases across the country.    We seek to provide space for our partner Federal agencies and assist them in achieving their missions while best serving the public interest. As a part of the administration's management agenda, GSA prioritizes finding ways to maximize utilization of the existing federally owned inventory, including reducing the number of leases we hold in our portfolio. By dramatically improving utilization of our current inventory, we have saved millions of dollars for our partner Federal agencies and the general public.    GSA works closely with OMB to help implement the national strategy for the efficient use of real property, and the two agencies have been key coordinators of Freeze the Footprint and the current Reduce the Footprint initiatives. GSA is implementing Reduce the Footprint by helping other Federal agencies increase their office space utilization and minimize cost, including thoroughly implementing innovative workplace strategies.    One example of GSA's efforts is the Department of Homeland Security consolidation at St. Elizabeths due to be completed in 2021. The first phase of the project completed in 2013 consolidated the United States Coast Guard Headquarters at the St. Elizabeths campus. As a result, GSA was able to vacate several leases totaling nearly 1 million square feet.    When all three phases of the consolidation are completed, approximately 40 leases will be consolidated on the federally owned campus resulting in over $1 billion in savings.    GSA leasing support services contract, or GLS, continues to be a workforce multiplier and is a critical part of GSA's strategy in delivering space. This past September GSA awarded nine GLS contracts across the country, including two to two small businesses.    We anticipate GLS to be used for approximately 30 to 40 million square feet of our inventory, equating to approximately $100 million in rent cost avoidance to our partner Federal agencies.    GSA's goal for the leasing program is to make it easier for the real estate industry to do business with the Federal Government, for GSA to deliver space quicker to our Federal customer agencies, and for GSA to secure competitive lease rates.    GSA uses a comprehensive, deliberative process that ensures full competition and fair rental rates for the taxpayer, while taking into account such public interest as proximity to central business districts and public transportation and supporting the mission requirements of GSA partners.    In an effort to improve the delivery of leased space in 2015, GSA rolled out is online offered portal known as the Automated Advanced Acquisition Program, or AAAP, in all U.S. markets. The goal for the platform is to make it easier for the real estate industry to do business with the Federal Government, for GSA to deliver space quicker to its Federal customer agencies, and for GSA to receive competitive rates.    AAAP's paperless, online offered submission process enables the Government to establish this goal. Since its inception in the GSA national capital region in 2005, the AAAP has conducted over lease transactions totaling over 4 million square feet and over $1.7 billion in total contract value.    Chairman Barletta, Ranking Member Carson, and members of the subcommittee, we strive to meet our customers' requirements in an efficient and transparent manner and are committed to reducing cost. Thank you for the opportunity to testify before you today. I will be happy to answer any questions.</t>
   </si>
   <si>
@@ -100,18 +88,12 @@
     <t xml:space="preserve">    Mr. Barletta. Mr. Reeder, you may proceed.</t>
   </si>
   <si>
-    <t>Reeder</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Reeder. Good morning, Mr. Chairman, Ranking Member Carson, Ranking Member DeFazio, and members of the subcommittee.    I am very pleased to appear before you today to discuss the Pension Benefit Guaranty Corporation and its engagement of the General Services Administration to secure a new headquarters lease for PBGC that reduces our space and consolidates our headquarters operations into a single location.    PBGC was established over 40 years ago by the Employee Retirement Income Security Act, or ERISA, to protect the retirement incomes of workers and retirees covered by private sector defined benefit pension plans. PBGC receives no taxpayer dollars. PBGC's operations are financed by insurance premiums, investment income, and assets and recoveries from failed plans.    PBGC covers more than 40 million Americans and more than 23,000 pension plans. We work with financially troubled employers that sponsor pension plans to help them preserve promised benefits and avoid plan failure.    For workers and retirees in plans that do fail, the agency's guarantee is critical to their retirement security. Today PBGC is responsible for the payment of current and future pensions for about 1.5 million Americans in 4,800 failed pension plans.    PBGC's staff come from diverse fields, including law, actuarial science, financial analysis, auditing, and information technology. The great service provided by our highly collaborative, talented and devoted workforce is well recognized by our customers.    In 2015, our customers' satisfaction score surpassed the scores of all Government agencies, as well as the best companies in the private sector.    PBGC began leasing its current headquarters space at 1200 K Street in 1992. As the demand for PBGC's services has grown, its Federal and contractor workforce has also expanded, and it's now over 1,800 total Federal employees and contractors, and our headquarters has expanded to two additional nearby buildings here in Washington.    PBGC also leases space in Kingstowne, Virginia, to take advantage of lower rates for certain back office operations while maintaining proximity for headquarters staff, and we have a decreasing number of field offices.    In 1994 we had 17 field offices. Today we have only five as we continue to find opportunities to improve efficiency and further reduce our footprint.    Although ERISA technically gives us independent leasing authority, it was an obvious decision for us to go to the agency with the expertise, bench strength, and clear authority to obtain the best value for PBGC's premium payers and other stakeholders as we contemplated the expiration of our headquarters lease at the end of 2018.    Last year we submitted our program of requirements to the GSA, and in March of this year, PBGC met with GSA, and the broker assigned to PBGC's lease procurement to go over proposed timelines and additional information.    Last month GSA submitted the prospectus lease for PBGC's consolidated headquarters space to the committee, and we have begun discussing the prospectus with subcommittee staff. Although it is still early in the process, I believe we have established a sound working relationship with GSA. The PBGC and GSA teams have been working well together and communications are good. We are moving forward in accordance with the steps GSA and PBGC have agreed to, and we are making good progress.    PBGC is pleased to be partnering with GSA in seeking a consolidated headquarters location. Consolidating our headquarters into one building will not only reduce our footprint and our cost, but it will also improve effective communication and collaboration in serving our customers.    Again, I appreciate the opportunity to appear before you today and look forward to answering any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony.    Mr. Lapiana, you can proceed.</t>
   </si>
   <si>
-    <t>Lapiana</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lapiana. Thank you.    On behalf of the Smithsonian Institution, thank you, Chairman Barletta, Ranking Member Carson and members of the subcommittee, for the opportunity to testify before the subcommittee today.    The Smithsonian is the world's largest museum, education and research complex, consisting of 19 museums and galleries, the National Zoo, and nine research facilities. Millions visit us each year, but very few see the hard work happening away from the museums that makes it all possible, and much of that behind the scenes work is being accomplished in leased space.    The Smithsonian's leasing requirements are unique. Our combined need for collections storage, administrative offices, research, laboratory and exhibition space is unlike that of any other Federal agency.    We currently lease about 1.5 million square feet at an annual cost of approximately $52 million. This is a significant cost to the Smithsonian and, in turn, to the American public.    As a result, we take seriously our responsibility to spend these dollars wisely and transparently. We get our wisdom through in-house professional real estate staff and outside private sector experts who identify the most cost effective leasing opportunities through detailed studies of real estate markets and submarkets.    We recognize that by relying on both internal and external expertise the Smithsonian can best meet its unique space requirements, ensure competitive negotiations with lessors, and identify when consolidation makes the most economic or programmatic sense.    We believe that this reliance has resulted in leases at or below market rates. We also believe that the Smithsonian is obligated to demonstrate that its use of taxpayer dollars is responsible. As an entity with independent leasing authority, we are not required to file annual reports with the Federal Real Property Council, but we do so voluntarily as part of our commitment to follow best practices.    Our Board of Regents, too, recognizes the importance of following best practices and must vet and approve all leases by the Smithsonian with a net present value of $5 million or more. Six Members of Congress sit on the Board, and three of those congressional Regents are also members of the Board's Facilities Committee, which has primary oversight over the Smithsonian's leasing activities, among other duties.    In determining our leasing requirements, Smithsonian museums, research centers, and support offices are required to formally compile a detailed request of their needs. Once approved, our real estate office works with the unit to verify and refine the requirement and develop an appropriate space plan.    We will only look to leasing space if current Smithsonian assets are unavailable, insufficient, or inappropriate for the proposed use.    As the Smithsonian's inspector general noted in a 2014 audit report on leasing activities, ``by monitoring the Smithsonian's use of leased office spaces the Real Estate Office successfully consolidated some spaces to reduce costs where possible.''    A disciplined leasing process is particularly important in securing space to house the national collections. Since Congress established the Smithsonian in 1846, we have learned much about the proper care and preservation of diverse collections and have applied that learning to develop realistic space requirements.    And these requirements can vary dramatically among the 138 million items in our collections, from mosquitoes to daguerreotypes types to the space shuttle, but all must satisfy Smithsonian standards for temperature, relative humidity, ventilation, lighting, fire suppression, and security. Our stringent policies and our adherence to them reflect how seriously we take our obligation to preserve and protect the national collections.    Looking ahead, last year we issued a collection space framework plan to guide our current and future collection needs while providing renovation and construction strategies that in the end will eliminate our need for leased collection space. Pursuant to the framework, we are planning to construct an additional storage pod at the Museum Support Center in Suitland, Maryland, and two new storage modules at the Udvar-Hazy Center in Chantilly, Virginia.    The first of those modules will initially serve as a temporary collection swing space during the revitalization of the National Air and Space Museum. A bill authorizing those projects has been referred to this subcommittee.    Our requirements for office space are less complex, but still carefully developed to ensure operational needs are met in a cost effective manner.    In addition to controlling leasing costs through competition, the Smithsonian is now pursuing a long-term cost savings strategy. Our current leased office holdings in DC are scattered across the metro area, creating operational inefficiencies and growing leasing costs.    To address this, we have aligned the termination dates of these leases with an eye toward consolidating space and creating savings. Proposals are now being evaluated in response to a nonbinding solicitation to consolidate Smithsonian administrative office space in the DC metro area.    We are conducting a cost-benefit analysis of all realistic options, from maintaining to status quo and extending those leases to outright purchase of a building, and we have also consulted with the GSA to identify suitable properties that may be available for consolidation within the Federal real estate portfolio.    As we look forward to the opening of the new National Museum of African American History and Culture this September and the renovation of the Air and Space Museum, and as our collections continue to grow, our need for space is greater than our budget will allow. For that reason, the Smithsonian will continue to seek efficiencies and consolidate our leased spaces in the most responsible and transparent manner possible.    Thank you for the opportunity to testify today, and thank you for your support of the Smithsonian Institution.</t>
   </si>
   <si>
@@ -217,9 +199,6 @@
     <t>412621</t>
   </si>
   <si>
-    <t>Carlos Curbelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you very much, Mr. Chairman, and I thank all the witnesses for their testimony today.</t>
   </si>
   <si>
@@ -302,9 +281,6 @@
   </si>
   <si>
     <t>400295</t>
-  </si>
-  <si>
-    <t>Eleanor Holmes Norton</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Chairman Barletta.    Indeed, I thank you for holding this hearing because I have had a long-term issue with independent leases apart from the expert agency that Congress said should do the leasing, and we have had some terrible mishaps when that was not done and agencies essentially acted like the world was theirs. They say let us see if we can find the best opportunity for us, not necessarily the best opportunity for the Government.    But in light of the fact that I have long been critical of agencies independently doing their own leasing, Mr. Wise, I was interested that you looked at 37 independent leases. It says ``selected independent leases,'' but I assume that they were randomly selected, and found comparable to or lower than the GSA rates.    How do you account for that?</t>
@@ -778,11 +754,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -802,13 +776,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -830,11 +802,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -854,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -882,11 +850,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -908,11 +874,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -932,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -960,11 +922,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -984,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1012,11 +970,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1036,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1064,11 +1018,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1088,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1116,11 +1066,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1142,11 +1090,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1168,11 +1114,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1194,11 +1138,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1218,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1246,11 +1186,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1270,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1298,11 +1234,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1322,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1348,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1374,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1400,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1426,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1452,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1478,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1504,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1530,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1556,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1582,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1610,11 +1522,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1634,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1660,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1686,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1712,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1738,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1764,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1790,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1816,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1842,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1868,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1894,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1920,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1948,11 +1834,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1972,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1998,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2024,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2050,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2078,11 +1954,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2102,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2128,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>67</v>
-      </c>
-      <c r="H54" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2154,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2180,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2206,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2234,11 +2098,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2258,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2286,11 +2146,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2310,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2336,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2362,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2388,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2416,11 +2266,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2440,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2468,11 +2314,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2492,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2520,11 +2362,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2544,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2572,11 +2410,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2598,11 +2434,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2622,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2650,11 +2482,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2674,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2700,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
-      </c>
-      <c r="G76" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2726,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
-      </c>
-      <c r="G77" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2752,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
-      </c>
-      <c r="G78" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2778,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2804,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
-      </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2830,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2856,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
-      </c>
-      <c r="G82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>96</v>
-      </c>
-      <c r="H82" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2882,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2908,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2934,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2960,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
-      </c>
-      <c r="G86" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2986,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3012,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>95</v>
-      </c>
-      <c r="G88" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3038,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3064,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3090,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3116,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>95</v>
-      </c>
-      <c r="G92" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3142,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3168,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>95</v>
-      </c>
-      <c r="G94" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3194,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3220,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>95</v>
-      </c>
-      <c r="G96" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3248,11 +3034,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3272,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3300,11 +3082,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20638.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20638.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Barletta</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barletta. The committee will come to order.    Since I became chairman of the subcommittee, the committee has worked with GSA on reducing the cost of leased space by negotiating better deals and reducing the real estate footprint.    We held a hearing and a series of roundtables with GSA, tenant agencies, and real estate experts on the large number of GSA leases expiring in the next 5 years and how we can take advantage of the current market to reduce costs to the taxpayer. We could save $500 million annually by just negotiating better lease deals.    As a result of these efforts, we introduced and the House passed H.R. 4487, the Public Buildings Reform and Savings Act, which includes a leasing pilot program which will give GSA the tools that it needs to more effectively lock in good lease deals.    But while we have been working to improve how GSA manages its leases, there are more than 50 other agencies with their own authority to lease office and warehouse space. And half of those agencies do not even have to comply with OMB's directives to reduce space or report their leases to the governmentwide Federal real property database.    For many of these agencies, there is little oversight of how they manage their leases. That is why the committee requested that the GAO do a review of these independent leasing authorities, including:    One, how they are used and managed;    Two, whether the agencies are getting good deals for the taxpayer;    Three, whether agencies are reducing their costs and space footprint; and    Four, whether agencies are acting within their legal authority.    While the GAO found that some of these agencies were able to get comparable leasing rates or even better than GSA, in part due to their use of real estate brokers, very often they leased more space than they needed.    In addition, there are serious questions about whether some of these agencies are exceeding their leasing authority, potentially running afoul of key laws such as the Anti-Deficiency Act.    The committee's investigation of the Securities and Exchange Commission's use of its leasing authority in 2011 revealed the pitfalls agencies can fall into. The SEC exceeded its leasing authority and wound up committing the taxpayers to a $500 million lease that it did not need and, ultimately, had to be bailed out with help from GSA. The SEC, the Commodity Futures Trading Commission, and the VA are just a few agencies that have run afoul of laws limiting their leasing authorities.    Intentional or not, agencies that do not have real property as their primary mission face serious legal risks. And it is critical, starting with this hearing, that this message is made clear to them.    Before an agency signs a lease, there are three basic questions it should ask:    One, does the agency have leasing authority?    Two, does the agency have either no-year funding or explicit authority to enter into multiyear leases?    And, three, does the agency have an exemption from the Anti-Deficiency Act and the recording statute?    While there are a few exceptions, if the answer to any of these questions is no, the agency may not have the legal authority to sign a lease or may have to obligate the full amount of the lease upfront.    This analysis is separate from the analysis for whether or not a lease is a capital lease for scoring purposes.    We hope to hear more from GAO about its findings and learn how agencies with their own leasing authorities are managing and using their leasing authorities.    We also asked the GAO to review the use of purchase options in GSA leases. If used strategically, purchase options could save significant taxpayer dollars.    The budgetary scoring rules enacted in the 1990s effectively ended the practice of negotiating discounted purchase options in lease agreements by labeling them as capital leases. As capital leases, the full cost of the lease must be obligated upfront, creating a disincentive to use them.    The result has been the taxpayer paying for a building several times over through lease payments without ever being able to gain an equity interest. For example, we will have paid nearly $2 billion for headquarters space for DOT when the current lease expires without accruing any equity.    By identifying and reviewing a number of purchase options in GSA leases, GAO found that in the options exercised in recent years there was an $80 million benefit to the taxpayer. The Public Buildings Reform and Savings Act includes a provision that would provide GSA with the ability to again include these options, where appropriate, in its leases.    I look forward to hearing more from GAO and from our other witnesses today on these issues.    Thank you.    I now call on the ranking member of the subcommittee, Mr. Carson, for his opening statement.</t>
   </si>
   <si>
     <t>412258</t>
   </si>
   <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman Barletta and Ranking Member DeFazio.    Welcome to today's hearing about the use of independent leasing authority, on behalf of subcommittee Chairman Barletta and I, who have requested two reports from GAO on the use of independent leasing authority by Federal agencies and the use of purchase options in leasing.    This hearing highlights some of the findings from both of these reports. I am especially interested in the assessment of how GSA manages the civilian real estate inventory and its ability to advise other parts of the Federal Government on leasing commercial office space and warehouse space.    In 1949, President Harry Truman signed a law that created the modern day GSA and consolidated several Federal agencies into one agency tasked with providing workplaces for Federal employees and administering supplies. Since GSA was created, it has grown into a real estate giant that leases over 8,000 property assets, totaling 191 million rentable square feet with annual costs of $5.6 billion.    However, in January 2003, GAO designated Federal real property management as a high-risk area due, in part, to the Federal Government's overreliance on costly leasing. The Federal Government's real estate portfolio was in need of oversight and corrective action.    To that end, the Office of Management and Budget issued memoranda in 2012, 2013, and 2015 requiring Federal agencies to freeze and reduce their space footprint. This administration's sustained efforts, coupled with the efforts of this subcommittee, have resulted in millions of square footage of underutilized and unneeded property being shed from the Federal real estate inventory. These efforts have saved money and have allowed precious resources to be better used to achieve agency missions.    While there has been progress in really right-sizing the Federal real estate inventory, last February the leadership of this committee wrote to GAO asking them to study how agencies with their own leasing authority independent of GSA are exercising that authority. As detailed earlier by the chairman, many of these agencies were not subject to the Freeze the Footprint or even Reduce the Footprint directives from OMB.    Though this group of agencies tended to get lease rates that were similar to GSA, many of them often acquired more space than GSA would typically allow.    Additionally, GAO has indicated that some of the agencies that have independent leasing authority do not necessarily have the legal authority to sign a long-term operating lease. Many of the agencies that GAO have examined are doing a good job, but there is still room for improvement and the opportunity to find additional savings in future lease agreements.    Today's testimony and dialogue should serve as guideposts to how agencies exercise their independent leasing authority going forward and how more effective use of purchase options can lower the cost of housing Federal agencies further.    I look forward to moving on with this discussion.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>DeFazio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeFazio. Thank you, Mr. Chairman, and thank you for putting scrutiny on this important issue, the costs and potential efficiencies that could be gained with enhanced leasing.    The review of the independent leasing authority certainly has merit, and I do not mean just to gloss over that and I look forward to hearing more about that, but the other issue which has really disturbed me for so many years is that some idiot at OMB in 1990 promulgated a rule which we have been bound by which is restricting the Government's ability.    We hear a lot about running Government like a business. Well, what business is going to go out, enter into a costly lease, and deny itself the opportunity to purchase at the end of that lease at a discounted price, therefore being perpetually forever locked into expensive leasing?    Well, brainiac down at OMB, you know, wrote this into a rule, which somehow has never gotten changed at OMB. I am not certain how we change OMB. I am working with Chairman Chaffetz on OMB reform because I keep running into them doing all sorts of things that do not make sense for the U.S. Government or the taxpayers of the United States of America.    But in this case I am pleased to see that our committee has a solution in H.R. 4487. I mean, you know, for the first time ever in I think it was 2008, the Federal Government began occupying more leased than owned space, and in almost every case that is the more expensive way to go, and it also deprives the Federal Building Fund of direct payments that would help for future acquisitions of space and for maintenance and repair of Federal assets.    So the bill, H.R. 4487, does not really address the idiots at OMB. It does not end-run around their rule, but that is at least an improvement. So I fully support H.R. 4487, and I am looking forward to hearing more.    And I would love anybody on the panel to justify what we are doing now by denying ourselves the authority to purchase at a discounted rate, and if anybody wants to volunteer that, I would be happy to discuss it with them.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -76,6 +94,9 @@
     <t xml:space="preserve">    Mr. Wise. Chairman Barletta, Ranking Member Carson, and members of the subcommittee, I am pleased to be here today to discuss our work on Federal use of independent leasing authority for real property.    While GSA leases real property on behalf of many Federal tenants, Congress can provide independent leasing authority to Federal entities either through their enabling legislation or through an appropriations act. GSA tracks and reports on its tenants' real property holdings. However, less is known about the holdings of Federal entities that independently lease real property.    In 2004, the President issues an Executive order establishing the Federal Real Property Council, FRPC, composed of CFO Act Federal entities. OMB chairs the FRPC.    Goals of the FRPC include developing guidance, facilitating agency asset management plans, and serving as a clearinghouse for leading practices. The order also directed establishment of a governmentwide real property database, now called the Federal Real Property Profile, FRPP.    Today I would like to make four main points. One, in surveying 103 Federal entities, we found that of the 52 reporting leasing authority 25 are not required to report to FRPP, and there is a lack of coordination and information sharing with the FRPC.    Two, most of the 37 selected independent leases we reviewed were comparable to or lower than matched GSA rates.    Three, most selected entities' leasing policies generally align with leasing practices but lack documentation.    And, four, most selected entities exceeded GSA's recommended target for space allocation.    While not required, neither GSA nor OMB maintains a comprehensive list of Federal Government entities with independent leasing authority. FRPP offers a possible way to determine this, but the information is incomplete, as only the agencies in the FRPC are required to annually submit their real property information to FRPP.    Based on our survey, the 25 entities that are not members of FRPC reported in fiscal year 2015 that they leased space covering approximately 8.3 rentable square feet and costing about $293 million in annual rent.    FRPC members coordinate efforts and share leading practices in areas such as space allocation that OMB staff have said are critical to reform efforts. However, the 25 non-member entities are excluded from FRPC efforts.    We also found that FRPC members were more likely to have leasing policies that aligned with the leading practices than non-members. Increasing FRPC participation would likely allow all Federal entities to benefit from the collaboration and sharing of leading practices.    Our related report that we issued today recommended that OMB establish efficient methods for including data from non-FRPC member entities to the FRPP and increase collaboration between FRPC member and non-member entities. OMB agreed with both recommendations.    We analyzed 37 selected independent leases across seven Federal entities. Of these 14 had rates that were less costly than matched GSA leases and 11 had comparable rates. The remaining 12 leases had rates that cost more than matched GSA leases. We identified several possible factors why some of the independent leases we analyzed were less expensive than matched GSA leases as follows.    GSA uses standardized lease documents that include clauses that can be more rigorous than the leases provided by private sector landlords.    Renovation or reconfiguration costs were more common in GSA leases than the independent leases in our sample.    The independent leases we analyzed had periods of free rent built into the leases more frequently than the matched GSA lease.    We developed a list of leading practices that Federal entities should incorporate into their real property leasing functions. These include: one, assessing need; two, planning ahead; three, ensuring best value; and four, analyzing and documenting lease budget effect.    We reviewed the extent to which eight selected Federal entities had policies that aligned with leading Government leasing practices. Although most of the selected entities had established policies consistent with leading Government practices, we found numerous instances where the lease files lacked evidence of support that the leading practices were actually used.    Specifically, we found that a high percentage of the entities' lease files lacked evidence for analyzing and documenting the budget effects of the lease. This is important because Federal entities must comply with the recording statute requires Federal agencies to record the full amount of their contractual liabilities, including leases, against funds available when the contract is executed.    Violations of the recording statute can also result in Anti-Deficiency Act violations if lease obligations exceed available budget authority at the time the lease is executed.    All of the eight entities we reviewed leased more office space per employee than GSA's recommended target of 150 square feet per employee. Twenty-eight of the thirty selected office leases we analyzed exceeded the GSA recommended target on average by a factor of two. Many of these leases had vacant office spaces, which can inflate the per person space allocation.    Greater involvement in FRPC could help these agencies learn and implement leading practices in space utilization.    This completes my prepared statement. I would be pleased to respond to any questions that you may have.    Mr. Barletta. Thank you, Mr. Wise. Thank you for your testimony.    Mr. Wisner, you may proceed.</t>
   </si>
   <si>
+    <t>Wisner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wisner. Good morning, Chairman Barletta, Ranking Member Carson, and members of the subcommittee. I am Chris Wisner, the Assistant Commissioner for Leasing at the General Services Administration's Public Buildings Service. I appreciate being invited here today to discuss GSA's efforts to provide cost effective leased space for our partner Federal agencies.    GSA's mission is to provide the best value in real estate to Government and to the American taxpayer. We currently have an inventory of 376 million square feet of space. Approximately half of that is leased, accounting for more than 8,300 leases across the country.    We seek to provide space for our partner Federal agencies and assist them in achieving their missions while best serving the public interest. As a part of the administration's management agenda, GSA prioritizes finding ways to maximize utilization of the existing federally owned inventory, including reducing the number of leases we hold in our portfolio. By dramatically improving utilization of our current inventory, we have saved millions of dollars for our partner Federal agencies and the general public.    GSA works closely with OMB to help implement the national strategy for the efficient use of real property, and the two agencies have been key coordinators of Freeze the Footprint and the current Reduce the Footprint initiatives. GSA is implementing Reduce the Footprint by helping other Federal agencies increase their office space utilization and minimize cost, including thoroughly implementing innovative workplace strategies.    One example of GSA's efforts is the Department of Homeland Security consolidation at St. Elizabeths due to be completed in 2021. The first phase of the project completed in 2013 consolidated the United States Coast Guard Headquarters at the St. Elizabeths campus. As a result, GSA was able to vacate several leases totaling nearly 1 million square feet.    When all three phases of the consolidation are completed, approximately 40 leases will be consolidated on the federally owned campus resulting in over $1 billion in savings.    GSA leasing support services contract, or GLS, continues to be a workforce multiplier and is a critical part of GSA's strategy in delivering space. This past September GSA awarded nine GLS contracts across the country, including two to two small businesses.    We anticipate GLS to be used for approximately 30 to 40 million square feet of our inventory, equating to approximately $100 million in rent cost avoidance to our partner Federal agencies.    GSA's goal for the leasing program is to make it easier for the real estate industry to do business with the Federal Government, for GSA to deliver space quicker to our Federal customer agencies, and for GSA to secure competitive lease rates.    GSA uses a comprehensive, deliberative process that ensures full competition and fair rental rates for the taxpayer, while taking into account such public interest as proximity to central business districts and public transportation and supporting the mission requirements of GSA partners.    In an effort to improve the delivery of leased space in 2015, GSA rolled out is online offered portal known as the Automated Advanced Acquisition Program, or AAAP, in all U.S. markets. The goal for the platform is to make it easier for the real estate industry to do business with the Federal Government, for GSA to deliver space quicker to its Federal customer agencies, and for GSA to receive competitive rates.    AAAP's paperless, online offered submission process enables the Government to establish this goal. Since its inception in the GSA national capital region in 2005, the AAAP has conducted over lease transactions totaling over 4 million square feet and over $1.7 billion in total contract value.    Chairman Barletta, Ranking Member Carson, and members of the subcommittee, we strive to meet our customers' requirements in an efficient and transparent manner and are committed to reducing cost. Thank you for the opportunity to testify before you today. I will be happy to answer any questions.</t>
   </si>
   <si>
@@ -88,12 +109,18 @@
     <t xml:space="preserve">    Mr. Barletta. Mr. Reeder, you may proceed.</t>
   </si>
   <si>
+    <t>Reeder</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Reeder. Good morning, Mr. Chairman, Ranking Member Carson, Ranking Member DeFazio, and members of the subcommittee.    I am very pleased to appear before you today to discuss the Pension Benefit Guaranty Corporation and its engagement of the General Services Administration to secure a new headquarters lease for PBGC that reduces our space and consolidates our headquarters operations into a single location.    PBGC was established over 40 years ago by the Employee Retirement Income Security Act, or ERISA, to protect the retirement incomes of workers and retirees covered by private sector defined benefit pension plans. PBGC receives no taxpayer dollars. PBGC's operations are financed by insurance premiums, investment income, and assets and recoveries from failed plans.    PBGC covers more than 40 million Americans and more than 23,000 pension plans. We work with financially troubled employers that sponsor pension plans to help them preserve promised benefits and avoid plan failure.    For workers and retirees in plans that do fail, the agency's guarantee is critical to their retirement security. Today PBGC is responsible for the payment of current and future pensions for about 1.5 million Americans in 4,800 failed pension plans.    PBGC's staff come from diverse fields, including law, actuarial science, financial analysis, auditing, and information technology. The great service provided by our highly collaborative, talented and devoted workforce is well recognized by our customers.    In 2015, our customers' satisfaction score surpassed the scores of all Government agencies, as well as the best companies in the private sector.    PBGC began leasing its current headquarters space at 1200 K Street in 1992. As the demand for PBGC's services has grown, its Federal and contractor workforce has also expanded, and it's now over 1,800 total Federal employees and contractors, and our headquarters has expanded to two additional nearby buildings here in Washington.    PBGC also leases space in Kingstowne, Virginia, to take advantage of lower rates for certain back office operations while maintaining proximity for headquarters staff, and we have a decreasing number of field offices.    In 1994 we had 17 field offices. Today we have only five as we continue to find opportunities to improve efficiency and further reduce our footprint.    Although ERISA technically gives us independent leasing authority, it was an obvious decision for us to go to the agency with the expertise, bench strength, and clear authority to obtain the best value for PBGC's premium payers and other stakeholders as we contemplated the expiration of our headquarters lease at the end of 2018.    Last year we submitted our program of requirements to the GSA, and in March of this year, PBGC met with GSA, and the broker assigned to PBGC's lease procurement to go over proposed timelines and additional information.    Last month GSA submitted the prospectus lease for PBGC's consolidated headquarters space to the committee, and we have begun discussing the prospectus with subcommittee staff. Although it is still early in the process, I believe we have established a sound working relationship with GSA. The PBGC and GSA teams have been working well together and communications are good. We are moving forward in accordance with the steps GSA and PBGC have agreed to, and we are making good progress.    PBGC is pleased to be partnering with GSA in seeking a consolidated headquarters location. Consolidating our headquarters into one building will not only reduce our footprint and our cost, but it will also improve effective communication and collaboration in serving our customers.    Again, I appreciate the opportunity to appear before you today and look forward to answering any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony.    Mr. Lapiana, you can proceed.</t>
   </si>
   <si>
+    <t>Lapiana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lapiana. Thank you.    On behalf of the Smithsonian Institution, thank you, Chairman Barletta, Ranking Member Carson and members of the subcommittee, for the opportunity to testify before the subcommittee today.    The Smithsonian is the world's largest museum, education and research complex, consisting of 19 museums and galleries, the National Zoo, and nine research facilities. Millions visit us each year, but very few see the hard work happening away from the museums that makes it all possible, and much of that behind the scenes work is being accomplished in leased space.    The Smithsonian's leasing requirements are unique. Our combined need for collections storage, administrative offices, research, laboratory and exhibition space is unlike that of any other Federal agency.    We currently lease about 1.5 million square feet at an annual cost of approximately $52 million. This is a significant cost to the Smithsonian and, in turn, to the American public.    As a result, we take seriously our responsibility to spend these dollars wisely and transparently. We get our wisdom through in-house professional real estate staff and outside private sector experts who identify the most cost effective leasing opportunities through detailed studies of real estate markets and submarkets.    We recognize that by relying on both internal and external expertise the Smithsonian can best meet its unique space requirements, ensure competitive negotiations with lessors, and identify when consolidation makes the most economic or programmatic sense.    We believe that this reliance has resulted in leases at or below market rates. We also believe that the Smithsonian is obligated to demonstrate that its use of taxpayer dollars is responsible. As an entity with independent leasing authority, we are not required to file annual reports with the Federal Real Property Council, but we do so voluntarily as part of our commitment to follow best practices.    Our Board of Regents, too, recognizes the importance of following best practices and must vet and approve all leases by the Smithsonian with a net present value of $5 million or more. Six Members of Congress sit on the Board, and three of those congressional Regents are also members of the Board's Facilities Committee, which has primary oversight over the Smithsonian's leasing activities, among other duties.    In determining our leasing requirements, Smithsonian museums, research centers, and support offices are required to formally compile a detailed request of their needs. Once approved, our real estate office works with the unit to verify and refine the requirement and develop an appropriate space plan.    We will only look to leasing space if current Smithsonian assets are unavailable, insufficient, or inappropriate for the proposed use.    As the Smithsonian's inspector general noted in a 2014 audit report on leasing activities, ``by monitoring the Smithsonian's use of leased office spaces the Real Estate Office successfully consolidated some spaces to reduce costs where possible.''    A disciplined leasing process is particularly important in securing space to house the national collections. Since Congress established the Smithsonian in 1846, we have learned much about the proper care and preservation of diverse collections and have applied that learning to develop realistic space requirements.    And these requirements can vary dramatically among the 138 million items in our collections, from mosquitoes to daguerreotypes types to the space shuttle, but all must satisfy Smithsonian standards for temperature, relative humidity, ventilation, lighting, fire suppression, and security. Our stringent policies and our adherence to them reflect how seriously we take our obligation to preserve and protect the national collections.    Looking ahead, last year we issued a collection space framework plan to guide our current and future collection needs while providing renovation and construction strategies that in the end will eliminate our need for leased collection space. Pursuant to the framework, we are planning to construct an additional storage pod at the Museum Support Center in Suitland, Maryland, and two new storage modules at the Udvar-Hazy Center in Chantilly, Virginia.    The first of those modules will initially serve as a temporary collection swing space during the revitalization of the National Air and Space Museum. A bill authorizing those projects has been referred to this subcommittee.    Our requirements for office space are less complex, but still carefully developed to ensure operational needs are met in a cost effective manner.    In addition to controlling leasing costs through competition, the Smithsonian is now pursuing a long-term cost savings strategy. Our current leased office holdings in DC are scattered across the metro area, creating operational inefficiencies and growing leasing costs.    To address this, we have aligned the termination dates of these leases with an eye toward consolidating space and creating savings. Proposals are now being evaluated in response to a nonbinding solicitation to consolidate Smithsonian administrative office space in the DC metro area.    We are conducting a cost-benefit analysis of all realistic options, from maintaining to status quo and extending those leases to outright purchase of a building, and we have also consulted with the GSA to identify suitable properties that may be available for consolidation within the Federal real estate portfolio.    As we look forward to the opening of the new National Museum of African American History and Culture this September and the renovation of the Air and Space Museum, and as our collections continue to grow, our need for space is greater than our budget will allow. For that reason, the Smithsonian will continue to seek efficiencies and consolidate our leased spaces in the most responsible and transparent manner possible.    Thank you for the opportunity to testify today, and thank you for your support of the Smithsonian Institution.</t>
   </si>
   <si>
@@ -199,6 +226,12 @@
     <t>412621</t>
   </si>
   <si>
+    <t>Curbelo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you very much, Mr. Chairman, and I thank all the witnesses for their testimony today.</t>
   </si>
   <si>
@@ -281,6 +314,12 @@
   </si>
   <si>
     <t>400295</t>
+  </si>
+  <si>
+    <t>Norton</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Chairman Barletta.    Indeed, I thank you for holding this hearing because I have had a long-term issue with independent leases apart from the expert agency that Congress said should do the leasing, and we have had some terrible mishaps when that was not done and agencies essentially acted like the world was theirs. They say let us see if we can find the best opportunity for us, not necessarily the best opportunity for the Government.    But in light of the fact that I have long been critical of agencies independently doing their own leasing, Mr. Wise, I was interested that you looked at 37 independent leases. It says ``selected independent leases,'' but I assume that they were randomly selected, and found comparable to or lower than the GSA rates.    How do you account for that?</t>
@@ -704,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,7 +751,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,2357 +773,2768 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G56" t="s">
+        <v>70</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G75" t="s">
+        <v>100</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G76" t="s">
+        <v>100</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G77" t="s">
+        <v>100</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G78" t="s">
+        <v>100</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G80" t="s">
+        <v>100</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G82" t="s">
+        <v>100</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G84" t="s">
+        <v>100</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G86" t="s">
+        <v>100</v>
+      </c>
       <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G88" t="s">
+        <v>100</v>
+      </c>
       <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>88</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G90" t="s">
+        <v>100</v>
+      </c>
       <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>88</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G92" t="s">
+        <v>100</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>88</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G94" t="s">
+        <v>100</v>
+      </c>
       <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>88</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G96" t="s">
+        <v>100</v>
+      </c>
       <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
       <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20638.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20638.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Barletta</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412258</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Carson</t>
   </si>
   <si>
@@ -224,6 +233,9 @@
   </si>
   <si>
     <t>412621</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Curbelo</t>
@@ -743,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,7 +763,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,2765 +788,2980 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>34</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>34</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G75" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G76" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G77" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I78" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G80" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>26</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G82" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G84" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G88" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G90" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H90" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>26</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G92" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>29</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G94" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H94" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>26</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G96" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H96" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>126</v>
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
